--- a/UploadTemplate.xlsx
+++ b/UploadTemplate.xlsx
@@ -1,23 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3eeb822f07df6421/Documents/GitHub/LPGenie/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_10160136FC9A95EE42752EEDE256024561DC9A42" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC8D8DC3-2070-42C4-9BDF-1395FC8214BB}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="INSTRUCTIONS"/>
-    <sheet r:id="rId2" sheetId="2" name="demand"/>
-    <sheet r:id="rId3" sheetId="3" name="workerproduct"/>
-    <sheet r:id="rId4" sheetId="4" name="initial_inventory"/>
-    <sheet r:id="rId5" sheetId="5" name="initial_worker"/>
-    <sheet r:id="rId6" sheetId="6" name="sample_demand"/>
-    <sheet r:id="rId7" sheetId="7" name="sample_workerproduct"/>
-    <sheet r:id="rId8" sheetId="8" name="sample_initial_inventory"/>
-    <sheet r:id="rId9" sheetId="9" name="sample_initial_worker"/>
+    <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
+    <sheet name="demand" sheetId="2" r:id="rId2"/>
+    <sheet name="workerproduct" sheetId="3" r:id="rId3"/>
+    <sheet name="initial_inventory" sheetId="4" r:id="rId4"/>
+    <sheet name="initial_worker" sheetId="5" r:id="rId5"/>
+    <sheet name="sample_demand" sheetId="6" r:id="rId6"/>
+    <sheet name="sample_workerproduct" sheetId="7" r:id="rId7"/>
+    <sheet name="sample_initial_inventory" sheetId="8" r:id="rId8"/>
+    <sheet name="sample_initial_worker" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,8 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,59 +189,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -234,10 +249,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -275,71 +290,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,7 +382,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -390,11 +405,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -403,13 +418,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -419,7 +434,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -428,7 +443,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -437,7 +452,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -445,10 +460,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -513,21 +528,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -537,471 +552,447 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="12">
+    <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10">
         <v>45292</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>5860</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>2392</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2128</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="12">
+    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10">
         <v>45323</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>7500</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>4300</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2860</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="12">
+    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10">
         <v>45352</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>5896</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2468</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>556</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="12">
+    <row r="5" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10">
         <v>45383</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2964</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>6064</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>2340</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12">
+    <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10">
         <v>45413</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5188</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2304</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3004</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12">
+    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10">
         <v>45444</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1464</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1092</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>1776</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12">
+    <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
         <v>45474</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3880</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>3640</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>2032</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12">
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10">
         <v>45505</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4192</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>132</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2464</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12">
+    <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="10">
         <v>45536</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2580</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3684</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1068</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>652</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12">
+    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10">
         <v>45566</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>5328</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>4956</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>2936</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12">
+    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
         <v>45597</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>5208</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3612</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1736</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12">
+    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10">
         <v>45627</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>6032</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2760</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1448</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12">
+    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
         <v>45658</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>4344</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>2784</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>2364</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="12">
+    <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="10">
         <v>45689</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>6728</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>3468</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>2684</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="12">
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
         <v>45717</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>5084</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>30</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>2116</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>720</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="12">
+    <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="10">
         <v>45748</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4264</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>3128</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>3604</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>780</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="12">
+    <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
         <v>45778</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>5840</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>3504</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>2932</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>984</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="12">
+    <row r="19" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="10">
         <v>45809</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>3716</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>4660</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>3072</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>652</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="12">
+    <row r="20" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
         <v>45839</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>5352</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1648</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>1552</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1004</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="12">
+    <row r="21" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10">
         <v>45870</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>3032</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>2804</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1628</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="12">
+    <row r="22" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="10">
         <v>45901</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>3040</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>3872</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>3232</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>560</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="12">
+    <row r="23" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10">
         <v>45931</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>4596</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>440</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>2120</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="12">
+    <row r="24" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="10">
         <v>45962</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>2460</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>5660</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>2708</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="12">
+    <row r="25" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="10">
         <v>45992</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>3916</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>1840</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>2176</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>452</v>
       </c>
     </row>
@@ -1011,93 +1002,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="B1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>120</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>137</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>86</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>122</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>140</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>100</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>130</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>125</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>90</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>120</v>
       </c>
     </row>
@@ -1107,53 +1094,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="3">
         <v>2450</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
         <v>1580</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
         <v>3000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1163,46 +1147,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4">
+    <row r="2" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="3">
         <v>42</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>43</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>23</v>
       </c>
     </row>
@@ -1212,472 +1192,542 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="12">
+    <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10">
         <v>45292</v>
       </c>
-      <c r="C2" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D2" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E2" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F2" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="12">
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C25" ca="1" si="0">4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
+        <v>5892</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D25" ca="1" si="1">4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
+        <v>1496</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E25" ca="1" si="2">4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
+        <v>3624</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F25" ca="1" si="3">4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10">
         <v>45323</v>
       </c>
-      <c r="C3" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D3" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E3" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F3" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="12">
+      <c r="C3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4268</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1904</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4084</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10">
         <v>45352</v>
       </c>
-      <c r="C4" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D4" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E4" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F4" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="12">
+      <c r="C4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6572</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4596</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3464</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10">
         <v>45383</v>
       </c>
-      <c r="C5" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D5" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E5" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F5" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12">
+      <c r="C5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4756</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2936</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2976</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10">
         <v>45413</v>
       </c>
-      <c r="C6" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D6" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E6" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F6" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12">
+      <c r="C6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7872</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2384</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1668</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10">
         <v>45444</v>
       </c>
-      <c r="C7" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D7" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E7" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F7" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12">
+      <c r="C7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>5516</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3676</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
         <v>45474</v>
       </c>
-      <c r="C8" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D8" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E8" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F8" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12">
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7888</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3212</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2512</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10">
         <v>45505</v>
       </c>
-      <c r="C9" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D9" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E9" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F9" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12">
+      <c r="C9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4228</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1808</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2948</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="10">
         <v>45536</v>
       </c>
-      <c r="C10" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D10" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E10" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F10" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12">
+      <c r="C10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2108</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4704</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3044</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10">
         <v>45566</v>
       </c>
-      <c r="C11" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D11" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E11" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F11" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12">
+      <c r="C11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3388</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2876</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2524</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
         <v>45597</v>
       </c>
-      <c r="C12" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D12" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E12" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F12" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12">
+      <c r="C12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4540</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2896</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2044</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10">
         <v>45627</v>
       </c>
-      <c r="C13" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D13" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E13" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F13" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12">
+      <c r="C13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3956</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3440</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2208</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
         <v>45658</v>
       </c>
-      <c r="C14" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D14" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E14" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F14" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="12">
+      <c r="C14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7324</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4060</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1680</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="10">
         <v>45689</v>
       </c>
-      <c r="C15" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D15" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E15" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F15" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="12">
+      <c r="C15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2728</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1432</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1624</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
         <v>45717</v>
       </c>
-      <c r="C16" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D16" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E16" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F16" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="12">
+      <c r="C16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2308</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3652</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1444</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="10">
         <v>45748</v>
       </c>
-      <c r="C17" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D17" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E17" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F17" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="12">
+      <c r="C17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5004</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3772</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3244</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
         <v>45778</v>
       </c>
-      <c r="C18" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D18" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E18" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F18" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="12">
+      <c r="C18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6228</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2748</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3024</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="10">
         <v>45809</v>
       </c>
-      <c r="C19" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D19" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E19" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F19" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="12">
+      <c r="C19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6216</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3180</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
         <v>45839</v>
       </c>
-      <c r="C20" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D20" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E20" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F20" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="12">
+      <c r="C20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3908</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2260</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2592</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10">
         <v>45870</v>
       </c>
-      <c r="C21" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D21" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E21" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F21" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="12">
+      <c r="C21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4456</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4604</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1192</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="10">
         <v>45901</v>
       </c>
-      <c r="C22" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D22" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E22" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F22" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="12">
+      <c r="C22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7312</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1688</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2912</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10">
         <v>45931</v>
       </c>
-      <c r="C23" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D23" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E23" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F23" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="12">
+      <c r="C23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1280</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3520</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="10">
         <v>45962</v>
       </c>
-      <c r="C24" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D24" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E24" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F24" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="12">
+      <c r="C24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5948</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2308</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="10">
         <v>45992</v>
       </c>
-      <c r="C25" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-      </c>
-      <c r="D25" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-      </c>
-      <c r="E25" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-      </c>
-      <c r="F25" s="4">
-        <f>4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
+      <c r="C25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5972</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2132</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2624</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -1686,93 +1736,86 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="B1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>80</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>86</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>83</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>136</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>140</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>145</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>102</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>90</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>120</v>
       </c>
     </row>
@@ -1782,53 +1825,47 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="B1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4">
+    <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="3">
         <v>150</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>120</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>30</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1838,46 +1875,41 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="C1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4">
+    <row r="2" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="3">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
     </row>
